--- a/Öğrenci_Soru_Sayısı_TYT_AYT_Net_V7.xlsx
+++ b/Öğrenci_Soru_Sayısı_TYT_AYT_Net_V7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bulen\Desktop\GITHUB ANA KLASOR\Student_Work_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A2A56D-B8EB-4363-BAB3-A9CFBD120370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F97105-3598-450A-A84D-71B5B656AE62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{188079E3-1FB8-4C3A-A4C1-FF4FF04EE122}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{188079E3-1FB8-4C3A-A4C1-FF4FF04EE122}"/>
   </bookViews>
   <sheets>
     <sheet name="HAFTALIK SORU  " sheetId="25" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="95">
   <si>
     <t>Geometri</t>
   </si>
@@ -339,6 +339,9 @@
   </si>
   <si>
     <t>yok</t>
+  </si>
+  <si>
+    <t>whatsapp</t>
   </si>
 </sst>
 </file>
@@ -1248,10 +1251,16 @@
     <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1284,6 +1293,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1294,19 +1306,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6547,9 +6550,9 @@
   </sheetPr>
   <dimension ref="A1:P140"/>
   <sheetViews>
-    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M121" sqref="M121"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H135" sqref="H135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12677,7 +12680,7 @@
       <c r="D120" s="138" t="s">
         <v>48</v>
       </c>
-      <c r="E120" s="177" t="s">
+      <c r="E120" s="161" t="s">
         <v>21</v>
       </c>
       <c r="F120" s="121">
@@ -12728,7 +12731,7 @@
       <c r="D121" s="138" t="s">
         <v>48</v>
       </c>
-      <c r="E121" s="177" t="s">
+      <c r="E121" s="161" t="s">
         <v>22</v>
       </c>
       <c r="F121" s="121">
@@ -12779,7 +12782,7 @@
       <c r="D122" s="138" t="s">
         <v>48</v>
       </c>
-      <c r="E122" s="177" t="s">
+      <c r="E122" s="161" t="s">
         <v>23</v>
       </c>
       <c r="F122" s="121">
@@ -12830,7 +12833,7 @@
       <c r="D123" s="138" t="s">
         <v>48</v>
       </c>
-      <c r="E123" s="177" t="s">
+      <c r="E123" s="161" t="s">
         <v>24</v>
       </c>
       <c r="F123" s="121">
@@ -12881,7 +12884,7 @@
       <c r="D124" s="138" t="s">
         <v>48</v>
       </c>
-      <c r="E124" s="177" t="s">
+      <c r="E124" s="161" t="s">
         <v>25</v>
       </c>
       <c r="F124" s="121">
@@ -12932,7 +12935,7 @@
       <c r="D125" s="138" t="s">
         <v>93</v>
       </c>
-      <c r="E125" s="177" t="s">
+      <c r="E125" s="161" t="s">
         <v>26</v>
       </c>
       <c r="F125" s="121">
@@ -12983,7 +12986,7 @@
       <c r="D126" s="138" t="s">
         <v>48</v>
       </c>
-      <c r="E126" s="177" t="s">
+      <c r="E126" s="161" t="s">
         <v>27</v>
       </c>
       <c r="F126" s="121">
@@ -13034,7 +13037,7 @@
       <c r="D127" s="138" t="s">
         <v>48</v>
       </c>
-      <c r="E127" s="177" t="s">
+      <c r="E127" s="161" t="s">
         <v>28</v>
       </c>
       <c r="F127" s="121">
@@ -13085,7 +13088,7 @@
       <c r="D128" s="138" t="s">
         <v>48</v>
       </c>
-      <c r="E128" s="178" t="s">
+      <c r="E128" s="162" t="s">
         <v>29</v>
       </c>
       <c r="F128" s="121">
@@ -13136,7 +13139,7 @@
       <c r="D129" s="138" t="s">
         <v>48</v>
       </c>
-      <c r="E129" s="178" t="s">
+      <c r="E129" s="162" t="s">
         <v>30</v>
       </c>
       <c r="F129" s="121">
@@ -13184,20 +13187,20 @@
       <c r="C130" s="2">
         <v>4</v>
       </c>
-      <c r="D130" s="4">
-        <v>0</v>
+      <c r="D130" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="E130" s="9" t="s">
         <v>21</v>
       </c>
       <c r="F130" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G130" s="1">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="H130" s="1">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="I130" s="1">
         <v>0</v>
@@ -13206,10 +13209,10 @@
         <v>0</v>
       </c>
       <c r="K130" s="1">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="L130" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="M130" s="1">
         <v>0</v>
@@ -13222,7 +13225,7 @@
       </c>
       <c r="P130" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.3">
@@ -13235,32 +13238,32 @@
       <c r="C131" s="2">
         <v>4</v>
       </c>
-      <c r="D131" s="4">
-        <v>0</v>
+      <c r="D131" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="E131" s="9" t="s">
         <v>22</v>
       </c>
       <c r="F131" s="1">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="G131" s="1">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="H131" s="1">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="I131" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="J131" s="1">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="K131" s="1">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="L131" s="1">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="M131" s="1">
         <v>0</v>
@@ -13273,7 +13276,7 @@
       </c>
       <c r="P131" s="1">
         <f t="shared" ref="P131:P139" si="3">SUM(F131:O131)</f>
-        <v>0</v>
+        <v>907</v>
       </c>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.3">
@@ -13490,32 +13493,32 @@
       <c r="C136" s="2">
         <v>4</v>
       </c>
-      <c r="D136" s="4">
-        <v>0</v>
+      <c r="D136" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="E136" s="9" t="s">
         <v>27</v>
       </c>
       <c r="F136" s="1">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G136" s="1">
-        <v>0</v>
+        <v>370</v>
       </c>
       <c r="H136" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I136" s="1">
-        <v>0</v>
+        <v>325</v>
       </c>
       <c r="J136" s="1">
         <v>0</v>
       </c>
       <c r="K136" s="1">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="L136" s="1">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="M136" s="1">
         <v>0</v>
@@ -13528,7 +13531,7 @@
       </c>
       <c r="P136" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.3">
@@ -13541,32 +13544,32 @@
       <c r="C137" s="2">
         <v>4</v>
       </c>
-      <c r="D137" s="4">
-        <v>0</v>
+      <c r="D137" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="E137" s="9" t="s">
         <v>28</v>
       </c>
       <c r="F137" s="1">
-        <v>0</v>
+        <v>294</v>
       </c>
       <c r="G137" s="1">
-        <v>0</v>
+        <v>510</v>
       </c>
       <c r="H137" s="1">
         <v>0</v>
       </c>
       <c r="I137" s="1">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="J137" s="1">
         <v>0</v>
       </c>
       <c r="K137" s="1">
-        <v>0</v>
+        <v>390</v>
       </c>
       <c r="L137" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M137" s="1">
         <v>0</v>
@@ -13579,7 +13582,7 @@
       </c>
       <c r="P137" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.3">
@@ -13643,32 +13646,32 @@
       <c r="C139" s="1">
         <v>4</v>
       </c>
-      <c r="D139" s="4">
-        <v>0</v>
+      <c r="D139" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="E139" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F139" s="1">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G139" s="1">
-        <v>0</v>
+        <v>341</v>
       </c>
       <c r="H139" s="1">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="I139" s="1">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="J139" s="1">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="K139" s="1">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="L139" s="1">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="M139" s="1">
         <v>0</v>
@@ -13681,7 +13684,7 @@
       </c>
       <c r="P139" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.3">
@@ -13702,8 +13705,8 @@
   </sheetPr>
   <dimension ref="A1:Q106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J113" sqref="J113"/>
     </sheetView>
   </sheetViews>
@@ -18708,431 +18711,431 @@
       </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A95" s="180" t="s">
+      <c r="A95" s="164" t="s">
         <v>16</v>
       </c>
-      <c r="B95" s="180">
+      <c r="B95" s="164">
         <v>12</v>
       </c>
-      <c r="C95" s="180" t="s">
+      <c r="C95" s="164" t="s">
         <v>27</v>
       </c>
-      <c r="D95" s="180">
+      <c r="D95" s="164">
         <v>15</v>
       </c>
-      <c r="E95" s="180">
+      <c r="E95" s="164">
         <v>2</v>
       </c>
-      <c r="F95" s="180">
+      <c r="F95" s="164">
         <v>-0.5</v>
       </c>
-      <c r="G95" s="180">
+      <c r="G95" s="164">
         <v>-0.5</v>
       </c>
-      <c r="H95" s="180">
-        <v>0</v>
-      </c>
-      <c r="I95" s="180">
+      <c r="H95" s="164">
+        <v>0</v>
+      </c>
+      <c r="I95" s="164">
         <v>1.25</v>
       </c>
-      <c r="J95" s="180">
-        <v>0</v>
-      </c>
-      <c r="K95" s="180">
+      <c r="J95" s="164">
+        <v>0</v>
+      </c>
+      <c r="K95" s="164">
         <v>0.25</v>
       </c>
-      <c r="L95" s="180">
+      <c r="L95" s="164">
         <v>-0.75</v>
       </c>
-      <c r="M95" s="180">
+      <c r="M95" s="164">
         <v>-0.5</v>
       </c>
-      <c r="N95" s="180">
+      <c r="N95" s="164">
         <v>27</v>
       </c>
-      <c r="O95" s="180">
+      <c r="O95" s="164">
         <v>32</v>
       </c>
-      <c r="P95" s="180">
+      <c r="P95" s="164">
         <v>19</v>
       </c>
-      <c r="Q95" s="180" t="s">
+      <c r="Q95" s="164" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A96" s="180" t="s">
+      <c r="A96" s="164" t="s">
         <v>16</v>
       </c>
-      <c r="B96" s="180">
+      <c r="B96" s="164">
         <v>12</v>
       </c>
-      <c r="C96" s="180" t="s">
+      <c r="C96" s="164" t="s">
         <v>22</v>
       </c>
-      <c r="D96" s="180">
+      <c r="D96" s="164">
         <v>25.25</v>
       </c>
-      <c r="E96" s="180">
+      <c r="E96" s="164">
         <v>0.5</v>
       </c>
-      <c r="F96" s="180">
+      <c r="F96" s="164">
         <v>1.5</v>
       </c>
-      <c r="G96" s="180">
+      <c r="G96" s="164">
         <v>1.25</v>
       </c>
-      <c r="H96" s="180">
-        <v>0</v>
-      </c>
-      <c r="I96" s="180">
+      <c r="H96" s="164">
+        <v>0</v>
+      </c>
+      <c r="I96" s="164">
         <v>4</v>
       </c>
-      <c r="J96" s="180">
+      <c r="J96" s="164">
         <v>-0.25</v>
       </c>
-      <c r="K96" s="180">
-        <v>0</v>
-      </c>
-      <c r="L96" s="180">
+      <c r="K96" s="164">
+        <v>0</v>
+      </c>
+      <c r="L96" s="164">
         <v>0.75</v>
       </c>
-      <c r="M96" s="180">
+      <c r="M96" s="164">
         <v>2.25</v>
       </c>
-      <c r="N96" s="180">
+      <c r="N96" s="164">
         <v>47</v>
       </c>
-      <c r="O96" s="180">
+      <c r="O96" s="164">
         <v>37</v>
       </c>
-      <c r="P96" s="180">
+      <c r="P96" s="164">
         <v>37.75</v>
       </c>
-      <c r="Q96" s="180" t="s">
+      <c r="Q96" s="164" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A97" s="180" t="s">
+      <c r="A97" s="164" t="s">
         <v>16</v>
       </c>
-      <c r="B97" s="180">
+      <c r="B97" s="164">
         <v>12</v>
       </c>
-      <c r="C97" s="180" t="s">
+      <c r="C97" s="164" t="s">
         <v>25</v>
       </c>
-      <c r="D97" s="180">
+      <c r="D97" s="164">
         <v>15.25</v>
       </c>
-      <c r="E97" s="180">
+      <c r="E97" s="164">
         <v>1</v>
       </c>
-      <c r="F97" s="180">
+      <c r="F97" s="164">
         <v>0.25</v>
       </c>
-      <c r="G97" s="180">
-        <v>0</v>
-      </c>
-      <c r="H97" s="180">
-        <v>0</v>
-      </c>
-      <c r="I97" s="180">
+      <c r="G97" s="164">
+        <v>0</v>
+      </c>
+      <c r="H97" s="164">
+        <v>0</v>
+      </c>
+      <c r="I97" s="164">
         <v>5.75</v>
       </c>
-      <c r="J97" s="180">
+      <c r="J97" s="164">
         <v>-0.5</v>
       </c>
-      <c r="K97" s="180">
+      <c r="K97" s="164">
         <v>0.5</v>
       </c>
-      <c r="L97" s="180">
-        <v>0</v>
-      </c>
-      <c r="M97" s="180">
+      <c r="L97" s="164">
+        <v>0</v>
+      </c>
+      <c r="M97" s="164">
         <v>0.5</v>
       </c>
-      <c r="N97" s="180">
+      <c r="N97" s="164">
         <v>29</v>
       </c>
-      <c r="O97" s="180">
+      <c r="O97" s="164">
         <v>29</v>
       </c>
-      <c r="P97" s="180">
+      <c r="P97" s="164">
         <v>21.75</v>
       </c>
-      <c r="Q97" s="180" t="s">
+      <c r="Q97" s="164" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A98" s="180" t="s">
+      <c r="A98" s="164" t="s">
         <v>16</v>
       </c>
-      <c r="B98" s="180">
+      <c r="B98" s="164">
         <v>12</v>
       </c>
-      <c r="C98" s="180" t="s">
+      <c r="C98" s="164" t="s">
         <v>28</v>
       </c>
-      <c r="D98" s="180">
+      <c r="D98" s="164">
         <v>4.25</v>
       </c>
-      <c r="E98" s="180">
+      <c r="E98" s="164">
         <v>2.75</v>
       </c>
-      <c r="F98" s="180">
+      <c r="F98" s="164">
         <v>1.75</v>
       </c>
-      <c r="G98" s="180">
-        <v>0</v>
-      </c>
-      <c r="H98" s="180">
-        <v>0</v>
-      </c>
-      <c r="I98" s="180">
+      <c r="G98" s="164">
+        <v>0</v>
+      </c>
+      <c r="H98" s="164">
+        <v>0</v>
+      </c>
+      <c r="I98" s="164">
         <v>-2.75</v>
       </c>
-      <c r="J98" s="180">
+      <c r="J98" s="164">
         <v>-0.25</v>
       </c>
-      <c r="K98" s="180">
+      <c r="K98" s="164">
         <v>2.25</v>
       </c>
-      <c r="L98" s="180">
+      <c r="L98" s="164">
         <v>-1</v>
       </c>
-      <c r="M98" s="180">
+      <c r="M98" s="164">
         <v>1.25</v>
       </c>
-      <c r="N98" s="180">
+      <c r="N98" s="164">
         <v>18</v>
       </c>
-      <c r="O98" s="180">
+      <c r="O98" s="164">
         <v>39</v>
       </c>
-      <c r="P98" s="180">
+      <c r="P98" s="164">
         <v>8.25</v>
       </c>
-      <c r="Q98" s="180" t="s">
+      <c r="Q98" s="164" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A99" s="180" t="s">
+      <c r="A99" s="164" t="s">
         <v>16</v>
       </c>
-      <c r="B99" s="180">
+      <c r="B99" s="164">
         <v>12</v>
       </c>
-      <c r="C99" s="180" t="s">
+      <c r="C99" s="164" t="s">
         <v>21</v>
       </c>
-      <c r="D99" s="180">
+      <c r="D99" s="164">
         <v>25.25</v>
       </c>
-      <c r="E99" s="180">
+      <c r="E99" s="164">
         <v>1.25</v>
       </c>
-      <c r="F99" s="180">
+      <c r="F99" s="164">
         <v>1.5</v>
       </c>
-      <c r="G99" s="180">
+      <c r="G99" s="164">
         <v>2.5</v>
       </c>
-      <c r="H99" s="180">
-        <v>0</v>
-      </c>
-      <c r="I99" s="180">
+      <c r="H99" s="164">
+        <v>0</v>
+      </c>
+      <c r="I99" s="164">
         <v>9.25</v>
       </c>
-      <c r="J99" s="180">
-        <v>0</v>
-      </c>
-      <c r="K99" s="180">
+      <c r="J99" s="164">
+        <v>0</v>
+      </c>
+      <c r="K99" s="164">
         <v>1</v>
       </c>
-      <c r="L99" s="180">
+      <c r="L99" s="164">
         <v>3.5</v>
       </c>
-      <c r="M99" s="180">
+      <c r="M99" s="164">
         <v>4.75</v>
       </c>
-      <c r="N99" s="180">
+      <c r="N99" s="164">
         <v>59</v>
       </c>
-      <c r="O99" s="180">
+      <c r="O99" s="164">
         <v>25</v>
       </c>
-      <c r="P99" s="180">
+      <c r="P99" s="164">
         <v>52.75</v>
       </c>
-      <c r="Q99" s="180" t="s">
+      <c r="Q99" s="164" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A100" s="180" t="s">
+      <c r="A100" s="164" t="s">
         <v>16</v>
       </c>
-      <c r="B100" s="180">
+      <c r="B100" s="164">
         <v>12</v>
       </c>
-      <c r="C100" s="180" t="s">
+      <c r="C100" s="164" t="s">
         <v>26</v>
       </c>
-      <c r="D100" s="180">
+      <c r="D100" s="164">
         <v>14.5</v>
       </c>
-      <c r="E100" s="180">
+      <c r="E100" s="164">
         <v>1</v>
       </c>
-      <c r="F100" s="180">
+      <c r="F100" s="164">
         <v>-0.5</v>
       </c>
-      <c r="G100" s="180">
+      <c r="G100" s="164">
         <v>0.75</v>
       </c>
-      <c r="H100" s="180">
-        <v>0</v>
-      </c>
-      <c r="I100" s="180">
+      <c r="H100" s="164">
+        <v>0</v>
+      </c>
+      <c r="I100" s="164">
         <v>6</v>
       </c>
-      <c r="J100" s="180">
-        <v>0</v>
-      </c>
-      <c r="K100" s="180">
-        <v>0</v>
-      </c>
-      <c r="L100" s="180">
+      <c r="J100" s="164">
+        <v>0</v>
+      </c>
+      <c r="K100" s="164">
+        <v>0</v>
+      </c>
+      <c r="L100" s="164">
         <v>0.5</v>
       </c>
-      <c r="M100" s="180">
+      <c r="M100" s="164">
         <v>-0.25</v>
       </c>
-      <c r="N100" s="180">
+      <c r="N100" s="164">
         <v>30</v>
       </c>
-      <c r="O100" s="180">
+      <c r="O100" s="164">
         <v>22</v>
       </c>
-      <c r="P100" s="180">
+      <c r="P100" s="164">
         <v>24.5</v>
       </c>
-      <c r="Q100" s="180" t="s">
+      <c r="Q100" s="164" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A101" s="180" t="s">
+      <c r="A101" s="164" t="s">
         <v>16</v>
       </c>
-      <c r="B101" s="180">
+      <c r="B101" s="164">
         <v>12</v>
       </c>
-      <c r="C101" s="180" t="s">
+      <c r="C101" s="164" t="s">
         <v>30</v>
       </c>
-      <c r="D101" s="180">
+      <c r="D101" s="164">
         <v>12</v>
       </c>
-      <c r="E101" s="180">
+      <c r="E101" s="164">
         <v>0.5</v>
       </c>
-      <c r="F101" s="180">
+      <c r="F101" s="164">
         <v>0.75</v>
       </c>
-      <c r="G101" s="180">
+      <c r="G101" s="164">
         <v>-0.25</v>
       </c>
-      <c r="H101" s="180">
-        <v>0</v>
-      </c>
-      <c r="I101" s="180">
+      <c r="H101" s="164">
+        <v>0</v>
+      </c>
+      <c r="I101" s="164">
         <v>-0.25</v>
       </c>
-      <c r="J101" s="180">
+      <c r="J101" s="164">
         <v>1</v>
       </c>
-      <c r="K101" s="180">
+      <c r="K101" s="164">
         <v>0.75</v>
       </c>
-      <c r="L101" s="180">
+      <c r="L101" s="164">
         <v>-0.75</v>
       </c>
-      <c r="M101" s="180">
+      <c r="M101" s="164">
         <v>1.5</v>
       </c>
-      <c r="N101" s="180">
+      <c r="N101" s="164">
         <v>26</v>
       </c>
-      <c r="O101" s="180">
+      <c r="O101" s="164">
         <v>28</v>
       </c>
-      <c r="P101" s="180">
+      <c r="P101" s="164">
         <v>19</v>
       </c>
-      <c r="Q101" s="180" t="s">
+      <c r="Q101" s="164" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A102" s="180" t="s">
+      <c r="A102" s="164" t="s">
         <v>16</v>
       </c>
-      <c r="B102" s="180">
+      <c r="B102" s="164">
         <v>12</v>
       </c>
-      <c r="C102" s="180" t="s">
+      <c r="C102" s="164" t="s">
         <v>24</v>
       </c>
-      <c r="D102" s="180">
+      <c r="D102" s="164">
         <v>12</v>
       </c>
-      <c r="E102" s="180">
+      <c r="E102" s="164">
         <v>2.75</v>
       </c>
-      <c r="F102" s="180">
+      <c r="F102" s="164">
         <v>0.25</v>
       </c>
-      <c r="G102" s="180">
-        <v>0</v>
-      </c>
-      <c r="H102" s="180">
-        <v>0</v>
-      </c>
-      <c r="I102" s="180">
+      <c r="G102" s="164">
+        <v>0</v>
+      </c>
+      <c r="H102" s="164">
+        <v>0</v>
+      </c>
+      <c r="I102" s="164">
         <v>-3</v>
       </c>
-      <c r="J102" s="180">
-        <v>0</v>
-      </c>
-      <c r="K102" s="180">
+      <c r="J102" s="164">
+        <v>0</v>
+      </c>
+      <c r="K102" s="164">
         <v>1.25</v>
       </c>
-      <c r="L102" s="180">
+      <c r="L102" s="164">
         <v>-1.25</v>
       </c>
-      <c r="M102" s="180">
+      <c r="M102" s="164">
         <v>1</v>
       </c>
-      <c r="N102" s="180">
+      <c r="N102" s="164">
         <v>25</v>
       </c>
-      <c r="O102" s="180">
+      <c r="O102" s="164">
         <v>48</v>
       </c>
-      <c r="P102" s="180">
+      <c r="P102" s="164">
         <v>13</v>
       </c>
-      <c r="Q102" s="180" t="s">
+      <c r="Q102" s="164" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A103" s="179" t="s">
+      <c r="A103" s="163" t="s">
         <v>16</v>
       </c>
     </row>
@@ -19184,96 +19187,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="165" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="161" t="s">
+      <c r="B1" s="175" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="174" t="s">
+      <c r="C1" s="177" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="161" t="s">
+      <c r="D1" s="175" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="161" t="s">
+      <c r="E1" s="175" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="161" t="s">
+      <c r="F1" s="175" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="161" t="s">
+      <c r="G1" s="175" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="161" t="s">
+      <c r="H1" s="175" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="161" t="s">
+      <c r="I1" s="175" t="s">
         <v>81</v>
       </c>
-      <c r="J1" s="161" t="s">
+      <c r="J1" s="175" t="s">
         <v>82</v>
       </c>
-      <c r="K1" s="161" t="s">
+      <c r="K1" s="175" t="s">
         <v>83</v>
       </c>
-      <c r="L1" s="161" t="s">
+      <c r="L1" s="175" t="s">
         <v>84</v>
       </c>
-      <c r="M1" s="161" t="s">
+      <c r="M1" s="175" t="s">
         <v>85</v>
       </c>
-      <c r="N1" s="161" t="s">
+      <c r="N1" s="175" t="s">
         <v>86</v>
       </c>
-      <c r="O1" s="161" t="s">
+      <c r="O1" s="175" t="s">
         <v>87</v>
       </c>
-      <c r="P1" s="161" t="s">
+      <c r="P1" s="175" t="s">
         <v>88</v>
       </c>
-      <c r="Q1" s="161" t="s">
+      <c r="Q1" s="175" t="s">
         <v>89</v>
       </c>
-      <c r="R1" s="161" t="s">
+      <c r="R1" s="175" t="s">
         <v>90</v>
       </c>
-      <c r="S1" s="165" t="b">
+      <c r="S1" s="167" t="b">
         <v>1</v>
       </c>
-      <c r="T1" s="167" t="s">
+      <c r="T1" s="169" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="169" t="s">
+      <c r="U1" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="171" t="s">
+      <c r="V1" s="173" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="164"/>
-      <c r="B2" s="173"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="162"/>
-      <c r="K2" s="162"/>
-      <c r="L2" s="162"/>
-      <c r="M2" s="162"/>
-      <c r="N2" s="162"/>
-      <c r="O2" s="162"/>
-      <c r="P2" s="162"/>
-      <c r="Q2" s="162"/>
-      <c r="R2" s="162"/>
-      <c r="S2" s="166"/>
-      <c r="T2" s="168"/>
-      <c r="U2" s="170"/>
-      <c r="V2" s="172"/>
+      <c r="A2" s="166"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="179"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="179"/>
+      <c r="G2" s="179"/>
+      <c r="H2" s="179"/>
+      <c r="I2" s="179"/>
+      <c r="J2" s="179"/>
+      <c r="K2" s="179"/>
+      <c r="L2" s="179"/>
+      <c r="M2" s="179"/>
+      <c r="N2" s="179"/>
+      <c r="O2" s="179"/>
+      <c r="P2" s="179"/>
+      <c r="Q2" s="179"/>
+      <c r="R2" s="179"/>
+      <c r="S2" s="168"/>
+      <c r="T2" s="170"/>
+      <c r="U2" s="172"/>
+      <c r="V2" s="174"/>
     </row>
     <row r="3" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="134" t="s">
@@ -20112,6 +20115,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="T1:T2"/>
@@ -20128,12 +20137,6 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
